--- a/Companies/Diamond & Jewellery/Titan Company Ltd/Pruned_Excel/combined_excel_file.xlsx
+++ b/Companies/Diamond & Jewellery/Titan Company Ltd/Pruned_Excel/combined_excel_file.xlsx
@@ -55,10 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,15 +468,15 @@
     <col width="10" customWidth="1" min="30" max="30"/>
     <col width="10" customWidth="1" min="31" max="31"/>
     <col width="11" customWidth="1" min="32" max="32"/>
-    <col width="10" customWidth="1" min="33" max="33"/>
+    <col width="9" customWidth="1" min="33" max="33"/>
     <col width="11" customWidth="1" min="34" max="34"/>
     <col width="11" customWidth="1" min="35" max="35"/>
     <col width="11" customWidth="1" min="36" max="36"/>
-    <col width="10" customWidth="1" min="37" max="37"/>
-    <col width="10" customWidth="1" min="38" max="38"/>
+    <col width="9" customWidth="1" min="37" max="37"/>
+    <col width="9" customWidth="1" min="38" max="38"/>
     <col width="9" customWidth="1" min="39" max="39"/>
-    <col width="10" customWidth="1" min="40" max="40"/>
-    <col width="10" customWidth="1" min="41" max="41"/>
+    <col width="9" customWidth="1" min="40" max="40"/>
+    <col width="9" customWidth="1" min="41" max="41"/>
     <col width="9" customWidth="1" min="42" max="42"/>
     <col width="9" customWidth="1" min="43" max="43"/>
     <col width="9" customWidth="1" min="44" max="44"/>
@@ -1154,30 +1157,20 @@
           <t>Other Operating Income</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>110.00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>118.00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>120.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>126.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>132.00</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>132</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1204,30 +1197,20 @@
           <t>--</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>205.00</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>236.00</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>181.00</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>202.00</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>250.00</t>
-        </is>
+      <c r="L5" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -1304,80 +1287,50 @@
           <t>--</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>676.00</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>759.00</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>721.00</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>696.00</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>772.00</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>1,245.00</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>1,339.00</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>989.00</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>1,085.00</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>1,001.00</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>122.00</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>139.00</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>118.00</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>127.00</t>
-        </is>
+      <c r="AF5" s="2" t="n">
+        <v>676</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>759</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>721</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>696</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>772</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>1245</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>1339</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>989</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>1085</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>1001</v>
+      </c>
+      <c r="AP5" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="AQ5" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="AR5" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS5" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="AT5" s="2" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -1386,80 +1339,50 @@
           <t>Total Income From Operations</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1,367.00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1,478.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1,139.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1,203.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1,128.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>106.00</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>133.00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>162.00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>182.00</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>195.00</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1,261.00</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1,345.00</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>977.00</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1,021.00</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>933.00</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>1367</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1478</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1139</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1203</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>1261</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>1345</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>977</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>1021</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>933</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -1486,80 +1409,50 @@
           <t>--</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>1,261.00</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>1,345.00</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>977.00</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>1,021.00</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>933.00</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>321.00</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>305.00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>191.00</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>251.00</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>228.00</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>940.00</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>1,040.00</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>786.00</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>770.00</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>705.00</t>
-        </is>
+      <c r="V6" s="2" t="n">
+        <v>1261</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>1345</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>977</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>1021</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>933</v>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <v>321</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>305</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="AD6" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE6" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="AF6" s="2" t="n">
+        <v>940</v>
+      </c>
+      <c r="AG6" s="2" t="n">
+        <v>1040</v>
+      </c>
+      <c r="AH6" s="2" t="n">
+        <v>786</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>770</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>705</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
